--- a/creatives/test.xlsx
+++ b/creatives/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zachromano/PycharmProjects/AdOpsBot/creatives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92A60F6-8C1F-EA45-A50F-0CD70A0DD776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274C1619-5533-424C-A485-5DF1E8B6A8FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{2DDE1F8F-DD93-8041-9B6A-AC8BE64197B3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Campaign Name</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Creative Markup</t>
-  </si>
-  <si>
-    <t>274273550</t>
   </si>
   <si>
     <t>&lt;ins class='dcmads' style='display:inline-block;width:300px;height:250px'
@@ -58,76 +55,112 @@
 &lt;/ins&gt;&lt;SCRIPT TYPE="application/javascript" SRC="https://pixel.adsafeprotected.com/rjss/st/451180/46283121/skeleton.js"&gt;&lt;/SCRIPT&gt; &lt;NOSCRIPT&gt;&lt;IMG SRC="https://pixel.adsafeprotected.com/rfw/st/451180/46283120/skeleton.gif" BORDER=0 WIDTH=1 HEIGHT=1 ALT=""&gt;&lt;/NOSCRIPT&gt;</t>
   </si>
   <si>
-    <t>&lt;ins class='dcmads' style='display:inline-block;width:320px;height:50px'
-    data-dcm-placement='N2436.1172840.ADTHEORENT/B24226410.274273550'
+    <t>DCM INS No Blocking</t>
+  </si>
+  <si>
+    <t>&lt;script type="text/adtag"&gt;
+&lt;ins class='dcmads' style='display:inline-block;width:300px;height:250px'
+    data-dcm-placement='N9515.2055741ADTHEORANT3/B24155746.274785427'
     data-dcm-rendering-mode='script'
     data-dcm-https-only
     data-dcm-resettable-device-id=''
-    data-dcm-app-id=''
-    data-dcm-click-tracker=''&gt;
-  &lt;script src='https://www.googletagservices.com/dcm/dcmads.js'&gt;&lt;/script&gt;
-&lt;/ins&gt;&lt;SCRIPT TYPE="application/javascript" SRC="https://pixel.adsafeprotected.com/rjss/st/451180/46283121/skeleton.js"&gt;&lt;/SCRIPT&gt; &lt;NOSCRIPT&gt;&lt;IMG SRC="https://pixel.adsafeprotected.com/rfw/st/451180/46283120/skeleton.gif" BORDER=0 WIDTH=1 HEIGHT=1 ALT=""&gt;&lt;/NOSCRIPT&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ins class='dcmads' style='display:inline-block;width:160px;height:600px'
-    data-dcm-placement='N2436.1172840.ADTHEORENT/B24226410.274273550'
+    data-dcm-app-id=''&gt;
+  &lt;script src='https://www.googletagservices.com/dcm/dcmads.js'&gt;&lt;/scr+ipt&gt;
+&lt;/ins&gt;
+&lt;/script&gt;
+&lt;script language="javascript" type="text/javascript" src="https://cdn.doubleverify.com/dvbs_src.js?ctx=17974873&amp;cmp=24155746&amp;plc=274785427&amp;sid=5306288&amp;dvregion=2&amp;unit=300x250"&gt;
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>DCM INS DV</t>
+  </si>
+  <si>
+    <t>DCM INS IAS</t>
+  </si>
+  <si>
+    <t>&lt;ins class='dcmads' style='display:inline-block;width:300px;height:250px'
+    data-dcm-placement='N4427.1172840.ADTHEORENTINC/B23576403.267496865'
     data-dcm-rendering-mode='script'
     data-dcm-https-only
     data-dcm-resettable-device-id=''
-    data-dcm-app-id=''
-    data-dcm-click-tracker=''&gt;
-  &lt;script src='https://www.googletagservices.com/dcm/dcmads.js'&gt;&lt;/script&gt;
-&lt;/ins&gt;&lt;SCRIPT TYPE="application/javascript" SRC="https://pixel.adsafeprotected.com/rjss/st/451180/46283121/skeleton.js"&gt;&lt;/SCRIPT&gt; &lt;NOSCRIPT&gt;&lt;IMG SRC="https://pixel.adsafeprotected.com/rfw/st/451180/46283120/skeleton.gif" BORDER=0 WIDTH=1 HEIGHT=1 ALT=""&gt;&lt;/NOSCRIPT&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ins class='dcmads' style='display:inline-block;width:728px;height:90px'
-    data-dcm-placement='N2436.1172840.ADTHEORENT/B24226410.274273550'
-    data-dcm-rendering-mode='script'
-    data-dcm-https-only
-    data-dcm-resettable-device-id=''
-    data-dcm-app-id=''
-    data-dcm-click-tracker=''&gt;
-  &lt;script src='https://www.googletagservices.com/dcm/dcmads.js'&gt;&lt;/script&gt;
-&lt;/ins&gt;&lt;SCRIPT TYPE="application/javascript" SRC="https://pixel.adsafeprotected.com/rjss/st/451180/46283121/skeleton.js"&gt;&lt;/SCRIPT&gt; &lt;NOSCRIPT&gt;&lt;IMG SRC="https://pixel.adsafeprotected.com/rfw/st/451180/46283120/skeleton.gif" BORDER=0 WIDTH=1 HEIGHT=1 ALT=""&gt;&lt;/NOSCRIPT&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ins class='dcmads' style='display:inline-block;width:300px;height:600px'
-    data-dcm-placement='N2436.1172840.ADTHEORENT/B24226410.274273550'
-    data-dcm-rendering-mode='script'
-    data-dcm-https-only
-    data-dcm-resettable-device-id=''
-    data-dcm-app-id=''
-    data-dcm-click-tracker=''&gt;
-  &lt;script src='https://www.googletagservices.com/dcm/dcmads.js'&gt;&lt;/script&gt;
-&lt;/ins&gt;&lt;SCRIPT TYPE="application/javascript" SRC="https://pixel.adsafeprotected.com/rjss/st/451180/46283121/skeleton.js"&gt;&lt;/SCRIPT&gt; &lt;NOSCRIPT&gt;&lt;IMG SRC="https://pixel.adsafeprotected.com/rfw/st/451180/46283120/skeleton.gif" BORDER=0 WIDTH=1 HEIGHT=1 ALT=""&gt;&lt;/NOSCRIPT&gt;</t>
-  </si>
-  <si>
-    <t>274275932</t>
-  </si>
-  <si>
-    <t>&lt;ins class='dcmads' style='display:inline-block;width:300px;height:250px'
-    data-dcm-placement='N2436.1172840.ADTHEORENT/B24226410.274275932'
-    data-dcm-rendering-mode='script'
-    data-dcm-https-only
-    data-dcm-resettable-device-id=''
-    data-dcm-app-id=''
-    data-dcm-click-tracker=''&gt;
-  &lt;script src='https://www.googletagservices.com/dcm/dcmads.js'&gt;&lt;/script&gt;
-&lt;/ins&gt;&lt;SCRIPT TYPE="application/javascript" SRC="https://pixel.adsafeprotected.com/rjss/st/451180/46283123/skeleton.js"&gt;&lt;/SCRIPT&gt; &lt;NOSCRIPT&gt;&lt;IMG SRC="https://pixel.adsafeprotected.com/rfw/st/451180/46283122/skeleton.gif" BORDER=0 WIDTH=1 HEIGHT=1 ALT=""&gt;&lt;/NOSCRIPT&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ins class='dcmads' style='display:inline-block;width:320px;height:50px'
-    data-dcm-placement='N2436.1172840.ADTHEORENT/B24226410.274275932'
-    data-dcm-rendering-mode='script'
-    data-dcm-https-only
-    data-dcm-resettable-device-id=''
-    data-dcm-app-id=''
-    data-dcm-click-tracker=''&gt;
-  &lt;script src='https://www.googletagservices.com/dcm/dcmads.js'&gt;&lt;/script&gt;
-&lt;/ins&gt;&lt;SCRIPT TYPE="application/javascript" SRC="https://pixel.adsafeprotected.com/rjss/st/451180/46283123/skeleton.js"&gt;&lt;/SCRIPT&gt; &lt;NOSCRIPT&gt;&lt;IMG SRC="https://pixel.adsafeprotected.com/rfw/st/451180/46283122/skeleton.gif" BORDER=0 WIDTH=1 HEIGHT=1 ALT=""&gt;&lt;/NOSCRIPT&gt;</t>
-  </si>
-  <si>
-    <t>TUPSS Chicago June 10</t>
+    data-dcm-app-id=''&gt;
+  &lt;script src='https://fw.adsafeprotected.com/rjss/www.googletagservices.com/381329/46069094/dcm/dcmads.js'&gt;&lt;/script&gt;
+&lt;/ins&gt;</t>
+  </si>
+  <si>
+    <t>DCM Legacy DV</t>
+  </si>
+  <si>
+    <t>&lt;script type="text/adtag"&gt;
+&lt;SCRIPT language='JavaScript1.1' SRC="https://ad.doubleclick.net/ddm/adj/N5359.2055741ADTHEORANT1/B23909034.269411506;sz=160x600;ord=[timestamp];dc_lat=;dc_rdid=;tag_for_child_directed_treatment=;tfua=?"&gt;
+&lt;/scr+ipt&gt;
+&lt;/script&gt;
+&lt;script language="javascript" type="text/javascript" src="https://cdn.doubleverify.com/dvbs_src.js?ctx=11800497&amp;cmp=23909034&amp;plc=269411506&amp;sid=5099312&amp;dvregion=0&amp;unit=160x600"&gt;
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>DCM Legacy IAS</t>
+  </si>
+  <si>
+    <t>&lt;SCRIPT language='JavaScript1.1' SRC="https://fw.adsafeprotected.com/rjss/dc/385541/42095989/ddm/adj/N3867.456584.XAXIS.COM/B23601760.263883704;sz=300x600;dc_rdid=[IDFA];click=[ENCODEDCLICKURL];kw=[TIMESTAMP];ord=[timestamp];dc_lat=;dc_rdid=;tag_for_child_directed_treatment=;tfua=?"&gt;
+&lt;/SCRIPT&gt;</t>
+  </si>
+  <si>
+    <t>Sizmek IAS</t>
+  </si>
+  <si>
+    <t>&lt;script src="https://fw.adsafeprotected.com/rjss/bs.serving-sys.com/414258/43751279/BurstingPipe/adServer.bs?cn=rsb&amp;c=28&amp;pli=29594952&amp;PluID=0&amp;w=320&amp;h=50&amp;ord=[timestamp]&amp;ucm=true&amp;ebaddid=$$[IDFA]$$&amp;ebgaid=$$[IDFA]$$&amp;ebidfar=$$[IDFA]$$&amp;ebidfas1=$$[IDFA]$$&amp;ebidfas2=$$[IDFA]$$&amp;ebidfam=$$[IDFA]$$&amp;ebwaid=$$[IDFA]$$&amp;ebappid=$$[PUBLISHERID]$$&amp;ebappname=$$[ENCODEDPAGEURL]$$&amp;ebmblat=$$[LATITUDE]$$&amp;ebmblong=$$[LONGITUDE]$$"&gt;&lt;/script&gt;
+&lt;noscript&gt;
+&lt;a href="https://bs.serving-sys.com/BurstingPipe/adServer.bs?cn=brd&amp;FlightID=29594952&amp;Page=&amp;PluID=0&amp;Pos=643485132&amp;ebaddid=$$[IDFA]$$&amp;ebgaid=$$[IDFA]$$&amp;ebidfar=$$[IDFA]$$&amp;ebidfas1=$$[IDFA]$$&amp;ebidfas2=$$[IDFA]$$&amp;ebidfam=$$[IDFA]$$&amp;ebwaid=$$[IDFA]$$&amp;ebappid=$$[PUBLISHERID]$$&amp;ebappname=$$[ENCODEDPAGEURL]$$&amp;ebmblat=$$[LATITUDE]$$&amp;ebmblong=$$[LONGITUDE]$$" target="_blank"&gt;&lt;img src="https://fw.adsafeprotected.com/rfw/bs.serving-sys.com/414258/43751278/BurstingPipe/adServer.bs?cn=bsr&amp;FlightID=29594952&amp;Page=&amp;PluID=0&amp;Pos=643485132&amp;ebaddid=$$[IDFA]$$&amp;ebgaid=$$[IDFA]$$&amp;ebidfar=$$[IDFA]$$&amp;ebidfas1=$$[IDFA]$$&amp;ebidfas2=$$[IDFA]$$&amp;ebidfam=$$[IDFA]$$&amp;ebwaid=$$[IDFA]$$&amp;ebappid=$$[PUBLISHERID]$$&amp;ebappname=$$[ENCODEDPAGEURL]$$&amp;ebmblat=$$[LATITUDE]$$&amp;ebmblong=$$[LONGITUDE]$$" border=0 width=320 height=50&gt;&lt;/a&gt;
+&lt;/noscript&gt;</t>
+  </si>
+  <si>
+    <t>Sizemk</t>
+  </si>
+  <si>
+    <t>&lt;script src="https://bs.serving-sys.com/BurstingPipe/adServer.bs?cn=rsb&amp;c=28&amp;pli=28887076&amp;PluID=0&amp;w=300&amp;h=250&amp;ord=[timestamp]&amp;ucm=true&amp;ncu=$$[ENCODEDCLICKURL]/images/invisible.gif$$"&gt;&lt;/script&gt;
+&lt;noscript&gt;
+&lt;a href="[CLICKURL]https://bs.serving-sys.com/BurstingPipe/adServer.bs?cn=brd&amp;FlightID=28887076&amp;Page=&amp;PluID=0&amp;Pos=1282794104" target="_blank"&gt;&lt;img src="https://bs.serving-sys.com/BurstingPipe/adServer.bs?cn=bsr&amp;FlightID=28887076&amp;Page=&amp;PluID=0&amp;Pos=1282794104" border=0 width=300 height=250&gt;&lt;/a&gt;
+&lt;/noscript&gt;</t>
+  </si>
+  <si>
+    <t>Flashtalking</t>
+  </si>
+  <si>
+    <t>&lt;noscript&gt;
+&lt;a href="[CLICKURL]https://servedby.flashtalking.com/click/8/119966;4679546;0;209;0/?ft_width=300&amp;ft_height=250&amp;url=27893134" target="_blank"&gt;
+&lt;img border="0" src="https://servedby.flashtalking.com/imp/8/119966;4679546;205;gif;AdTheorentUS;AdTheorentDotComDisplay1TrialBondcatchallCROSSACQPROSNACPMNANA300x250/?"&gt;&lt;/a&gt;
+&lt;/noscript&gt;
+&lt;script language="Javascript1.1" type="text/javascript"&gt;
+var ftKeyword = "4679546__[LINEITEMID]";
+var ftKW = (ftKeyword) ? '&amp;ft_keyword=' +encodeURIComponent(ftKeyword) : "";
+var ftSection = (ftKeyword) ? encodeURIComponent(ftKeyword) : "";
+var ftClick = "[ENCODEDCLICKURL]";
+var ftLat = "[LATITUDE] ";
+var ftLong = "[LONGITUDE]";
+var ftLatLong = "&amp;ft_lat="+encodeURIComponent(ftLat)+"&amp;ft_long="+encodeURIComponent(ftLong);
+var ftExpTrack_4679546 = "";
+var ftX = "";
+var ftY = "";
+var ftZ = "";
+var ftOBA = 1;
+var ftContent = "";
+var ftCustom = "[TIMESTAMP]";
+var ft300x250_OOBclickTrack = "";
+var ftRandom = Math.random()*1000000;
+var ftBuildTag1 = "&lt;scr";
+var ftBuildTag2 = "&lt;/";
+var ftClick_4679546 = ftClick;
+if(typeof(ft_referrer)=="undefined"){var ft_referrer=(function(){var r="";if(window==top){r=window.location.href;}else{try{r=window.parent.location.href;}catch(e){}r=(r)?r:document.referrer;}while(encodeURIComponent(r).length&gt;1000){r=r.substring(0,r.length-1);}return r;}());}
+var ftDomain = (window==top)?"":(function(){var d=document.referrer,h=(d)?d.match("(?::q/q/)+([qw-]+(q.[qw-]+)+)(q/)?".replace(/q/g,decodeURIComponent("%"+"5C")))[1]:"";return (h&amp;&amp;h!=location.host)?"&amp;ft_ifb=1&amp;ft_domain="+encodeURIComponent(h):"";}());
+var ftTag = ftBuildTag1 + 'ipt language="javascript1.1" type="text/javascript" ';
+ftTag += 'src="https://servedby.flashtalking.com/imp/8/119966;4679546;201;js;AdTheorentUS;AdTheorentDotComDisplay1TrialBondcatchallCROSSACQPROSNACPMNANA300x250/?ftx='+ftX+'&amp;fty='+ftY+'&amp;ftadz='+ftZ+'&amp;ftscw='+ftContent+'&amp;ft_custom='+ftCustom+'&amp;ft_section='+ftSection+'&amp;ftOBA='+ftOBA+ftDomain+'&amp;ft_agentEnv='+(window.mraid||window.ormma?'1':'0')+ftLatLong+'&amp;ft_referrer='+encodeURIComponent(ft_referrer)+ftKW+'&amp;cachebuster='+ftRandom+'" id="ftscript_300x250" name="ftscript_300x250"';
+ftTag += '&gt;' + ftBuildTag2 + 'script&gt;';
+document.write(ftTag);
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>TUPSS Chicago June 12</t>
   </si>
 </sst>
 </file>
@@ -135,7 +168,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -186,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -207,20 +240,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -537,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAF8099-3A97-604E-9DF5-9B10252E723A}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -565,60 +613,68 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="339" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="339" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" ht="156" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="339" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="339" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="339" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="339" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="156" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="339" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="84" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
